--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll3-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll3-Notch3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H2">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I2">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J2">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N2">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q2">
-        <v>3.029868798197334</v>
+        <v>5.070941161932445</v>
       </c>
       <c r="R2">
-        <v>27.268819183776</v>
+        <v>45.638470457392</v>
       </c>
       <c r="S2">
-        <v>0.01529691289629114</v>
+        <v>0.01707747946335222</v>
       </c>
       <c r="T2">
-        <v>0.01529691289629114</v>
+        <v>0.01707747946335222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H3">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I3">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J3">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N3">
         <v>15.114731</v>
       </c>
       <c r="O3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q3">
-        <v>4.143245023476333</v>
+        <v>8.107696214539112</v>
       </c>
       <c r="R3">
-        <v>37.289205211287</v>
+        <v>72.969265930852</v>
       </c>
       <c r="S3">
-        <v>0.02091802069773366</v>
+        <v>0.02730440192016071</v>
       </c>
       <c r="T3">
-        <v>0.02091802069773365</v>
+        <v>0.02730440192016071</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H4">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I4">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J4">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N4">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q4">
-        <v>69.06386888297334</v>
+        <v>149.5162587690627</v>
       </c>
       <c r="R4">
-        <v>621.57481994676</v>
+        <v>1345.646328921564</v>
       </c>
       <c r="S4">
-        <v>0.3486830806707785</v>
+        <v>0.5035279954999287</v>
       </c>
       <c r="T4">
-        <v>0.3486830806707784</v>
+        <v>0.5035279954999288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H5">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I5">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J5">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N5">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q5">
-        <v>0.07990588283333334</v>
+        <v>0.1114370780257778</v>
       </c>
       <c r="R5">
-        <v>0.7191529455</v>
+        <v>1.002933702232</v>
       </c>
       <c r="S5">
-        <v>0.0004034212076542653</v>
+        <v>0.0003752882060094689</v>
       </c>
       <c r="T5">
-        <v>0.0004034212076542653</v>
+        <v>0.0003752882060094689</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H6">
         <v>2.877521</v>
       </c>
       <c r="I6">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J6">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N6">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q6">
-        <v>3.533943648316445</v>
+        <v>3.022508412555111</v>
       </c>
       <c r="R6">
-        <v>31.805492834848</v>
+        <v>27.202575712996</v>
       </c>
       <c r="S6">
-        <v>0.01784183797029788</v>
+        <v>0.01017894384788109</v>
       </c>
       <c r="T6">
-        <v>0.01784183797029788</v>
+        <v>0.01017894384788109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H7">
         <v>2.877521</v>
       </c>
       <c r="I7">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J7">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N7">
         <v>15.114731</v>
       </c>
       <c r="O7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q7">
         <v>4.832550651316778</v>
@@ -883,10 +883,10 @@
         <v>43.492955861851</v>
       </c>
       <c r="S7">
-        <v>0.02439812127313547</v>
+        <v>0.01627464840708619</v>
       </c>
       <c r="T7">
-        <v>0.02439812127313547</v>
+        <v>0.01627464840708619</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H8">
         <v>2.877521</v>
       </c>
       <c r="I8">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J8">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N8">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q8">
-        <v>80.55392395616444</v>
+        <v>89.11839745563965</v>
       </c>
       <c r="R8">
-        <v>724.9853156054801</v>
+        <v>802.065577100757</v>
       </c>
       <c r="S8">
-        <v>0.4066929759285418</v>
+        <v>0.3001252733477924</v>
       </c>
       <c r="T8">
-        <v>0.4066929759285418</v>
+        <v>0.3001252733477924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H9">
         <v>2.877521</v>
       </c>
       <c r="I9">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J9">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N9">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q9">
-        <v>0.09319970794444445</v>
+        <v>0.06642149751844444</v>
       </c>
       <c r="R9">
-        <v>0.8387973715</v>
+        <v>0.5977934776659999</v>
       </c>
       <c r="S9">
-        <v>0.0004705378052126095</v>
+        <v>0.0002236886060346378</v>
       </c>
       <c r="T9">
-        <v>0.0004705378052126095</v>
+        <v>0.0002236886060346378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,40 +1039,40 @@
         <v>0.411586</v>
       </c>
       <c r="I10">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J10">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N10">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q10">
-        <v>0.5054773641742222</v>
+        <v>0.4323242636595556</v>
       </c>
       <c r="R10">
-        <v>4.549296277568</v>
+        <v>3.890918372936</v>
       </c>
       <c r="S10">
-        <v>0.002552005953333797</v>
+        <v>0.001455944468371902</v>
       </c>
       <c r="T10">
-        <v>0.002552005953333797</v>
+        <v>0.001455944468371902</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>0.411586</v>
       </c>
       <c r="I11">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J11">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N11">
         <v>15.114731</v>
       </c>
       <c r="O11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q11">
-        <v>0.6912235192628887</v>
+        <v>0.6912235192628889</v>
       </c>
       <c r="R11">
-        <v>6.221011673365999</v>
+        <v>6.221011673366001</v>
       </c>
       <c r="S11">
-        <v>0.003489783442874869</v>
+        <v>0.002327843111928281</v>
       </c>
       <c r="T11">
-        <v>0.003489783442874868</v>
+        <v>0.002327843111928281</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,10 +1163,10 @@
         <v>0.411586</v>
       </c>
       <c r="I12">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J12">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N12">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q12">
-        <v>11.52202445974222</v>
+        <v>12.74704328315133</v>
       </c>
       <c r="R12">
-        <v>103.69822013768</v>
+        <v>114.723389548362</v>
       </c>
       <c r="S12">
-        <v>0.05817129925047454</v>
+        <v>0.04292839592000353</v>
       </c>
       <c r="T12">
-        <v>0.05817129925047454</v>
+        <v>0.04292839592000353</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,10 +1225,10 @@
         <v>0.411586</v>
       </c>
       <c r="I13">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J13">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N13">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q13">
-        <v>0.01333081322222222</v>
+        <v>0.009500593906222222</v>
       </c>
       <c r="R13">
-        <v>0.119977319</v>
+        <v>0.085505345156</v>
       </c>
       <c r="S13">
-        <v>6.730333960941973E-05</v>
+        <v>3.199528295479771E-05</v>
       </c>
       <c r="T13">
-        <v>6.730333960941973E-05</v>
+        <v>3.199528295479771E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H14">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I14">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J14">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N14">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O14">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P14">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q14">
-        <v>0.7943424503288889</v>
+        <v>0.7229556274862223</v>
       </c>
       <c r="R14">
-        <v>7.149082052960001</v>
+        <v>6.506600647376001</v>
       </c>
       <c r="S14">
-        <v>0.004010400476659881</v>
+        <v>0.002434707776535498</v>
       </c>
       <c r="T14">
-        <v>0.00401040047665988</v>
+        <v>0.002434707776535498</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H15">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I15">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J15">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N15">
         <v>15.114731</v>
       </c>
       <c r="O15">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P15">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q15">
-        <v>1.086236937460556</v>
+        <v>1.155900732639556</v>
       </c>
       <c r="R15">
-        <v>9.776132437145</v>
+        <v>10.403106593756</v>
       </c>
       <c r="S15">
-        <v>0.005484089550991169</v>
+        <v>0.003892743061487877</v>
       </c>
       <c r="T15">
-        <v>0.005484089550991167</v>
+        <v>0.003892743061487877</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H16">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I16">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J16">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N16">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O16">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P16">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q16">
-        <v>18.10651433828889</v>
+        <v>21.31628374812133</v>
       </c>
       <c r="R16">
-        <v>162.9586290446</v>
+        <v>191.846553733092</v>
       </c>
       <c r="S16">
-        <v>0.09141444436572353</v>
+        <v>0.0717871468665998</v>
       </c>
       <c r="T16">
-        <v>0.09141444436572352</v>
+        <v>0.07178714686659982</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H17">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I17">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J17">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N17">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O17">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P17">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q17">
-        <v>0.02094897138888889</v>
+        <v>0.01588739843288889</v>
       </c>
       <c r="R17">
-        <v>0.1885407425</v>
+        <v>0.142986585896</v>
       </c>
       <c r="S17">
-        <v>0.0001057651706877169</v>
+        <v>5.350421387266901E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001057651706877169</v>
+        <v>5.350421387266901E-05</v>
       </c>
     </row>
   </sheetData>
